--- a/publisher/public/assets/SUPERVISION.xlsx
+++ b/publisher/public/assets/SUPERVISION.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>value</t>
         </is>
       </c>
@@ -470,12 +465,7 @@
           <t>2021</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,38 +473,7 @@
           <t>2022</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20827,7 +20786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20843,11 +20802,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>value</t>
         </is>
       </c>
@@ -20858,12 +20812,7 @@
           <t>2021</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -20871,38 +20820,7 @@
           <t>2022</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20915,7 +20833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20931,15 +20849,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>staff_type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>staff_type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -20953,15 +20866,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Supervision Officers</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -20971,15 +20879,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -20989,15 +20892,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -21007,15 +20905,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -21025,15 +20918,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>Supervision Officers</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -21043,15 +20931,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -21061,15 +20944,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -21079,159 +20957,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PAROLE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Supervision Officers</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Supervision Officers</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PROBATION</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publisher/public/assets/SUPERVISION.xlsx
+++ b/publisher/public/assets/SUPERVISION.xlsx
@@ -51,6 +51,9 @@
     <t>2022</t>
   </si>
   <si>
+    <t>PRETRIAL_SUPERVISION</t>
+  </si>
+  <si>
     <t>PROBATION</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
   </si>
   <si>
     <t>OTHER_SUPERVISION</t>
-  </si>
-  <si>
-    <t>PRETRIAL_SUPERVISION</t>
   </si>
   <si>
     <t>ALL</t>
